--- a/public/file/template-excel-employee/template-excel-employees.xlsx
+++ b/public/file/template-excel-employee/template-excel-employees.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swidodo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-employee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDCB82D-5BF3-4D0A-ACC3-37DE96E5ABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF34D78-4953-48D8-973A-41E8C58DCA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template-excel-employee (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -38,9 +25,6 @@
     <t>ARP</t>
   </si>
   <si>
-    <t xml:space="preserve">HENDRA </t>
-  </si>
-  <si>
     <t>3603458712948329</t>
   </si>
   <si>
@@ -89,12 +73,6 @@
     <t>MALE</t>
   </si>
   <si>
-    <t>DATE OF JOINT</t>
-  </si>
-  <si>
-    <t>DATE OF RESIGN</t>
-  </si>
-  <si>
     <t>NAME EMPLOYEE</t>
   </si>
   <si>
@@ -161,9 +139,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>BRANCH NAME</t>
-  </si>
-  <si>
     <t>DIR</t>
   </si>
   <si>
@@ -171,6 +146,18 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>EXAMPLE NAME</t>
+  </si>
+  <si>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t>JOIN DATE</t>
+  </si>
+  <si>
+    <t>BRANCH CODE</t>
   </si>
 </sst>
 </file>
@@ -330,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,8 +497,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -626,6 +619,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -672,14 +680,51 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,232 +1081,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="25.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="20" style="15" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="17" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>42</v>
+      <c r="W1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="16">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
-        <v>26580</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="11">
+        <v>52</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="2">
+      <c r="V2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="16">
         <v>43845</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="11"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="11"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="I5" s="1"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="20"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="13"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="4"/>
       <c r="I6" s="1"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="20"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E10"/>
-      <c r="W10"/>
-      <c r="X10"/>
+      <c r="T6" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
